--- a/REGULAR/RE-ENCODE/re encode/PAYAWAN, RAQUEL.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/PAYAWAN, RAQUEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CC5658-E352-482D-8CD5-182E346C0A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -391,7 +390,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1039,7 +1038,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1087,7 +1085,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1130,7 +1128,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1194,7 +1192,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1254,7 +1252,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1318,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1381,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1479,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1540,7 +1538,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1605,7 +1603,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1646,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1721,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1909,7 +1907,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1975,7 +1973,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2033,7 +2031,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2097,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2155,7 +2153,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2228,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2273,7 +2271,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2339,7 +2337,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2395,7 +2393,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,25 +2489,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K334" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K334" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2816,7 +2814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2826,7 +2824,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2834,34 +2832,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K334"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A187" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A253" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B256" sqref="B256"/>
+      <selection pane="bottomLeft" activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2882,7 +2880,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2900,7 +2898,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2922,7 +2920,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2930,7 +2928,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2943,7 +2941,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2960,7 +2958,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2995,7 +2993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3004,7 +3002,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>125.33400000000002</v>
+        <v>126.58400000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3014,12 +3012,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>184.548</v>
+        <v>185.798</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3039,7 +3037,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>45</v>
       </c>
@@ -3057,7 +3055,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>38353</v>
       </c>
@@ -3081,7 +3079,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>64</v>
@@ -3103,7 +3101,7 @@
         <v>38371</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>38384</v>
       </c>
@@ -3129,7 +3127,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>64</v>
@@ -3151,7 +3149,7 @@
         <v>38373</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>67</v>
@@ -3171,7 +3169,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="49"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>64</v>
@@ -3193,7 +3191,7 @@
         <v>38413</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>38412</v>
       </c>
@@ -3213,7 +3211,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>38443</v>
       </c>
@@ -3239,7 +3237,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>38473</v>
       </c>
@@ -3259,7 +3257,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>38504</v>
       </c>
@@ -3285,7 +3283,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>38534</v>
       </c>
@@ -3305,7 +3303,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>38565</v>
       </c>
@@ -3331,7 +3329,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>38596</v>
       </c>
@@ -3357,7 +3355,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>38626</v>
       </c>
@@ -3377,7 +3375,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>38657</v>
       </c>
@@ -3403,7 +3401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>38687</v>
       </c>
@@ -3429,7 +3427,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>46</v>
       </c>
@@ -3447,7 +3445,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>38718</v>
       </c>
@@ -3467,7 +3465,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>38749</v>
       </c>
@@ -3487,7 +3485,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>38777</v>
       </c>
@@ -3513,7 +3511,7 @@
         <v>38782</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>72</v>
@@ -3535,7 +3533,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>38808</v>
       </c>
@@ -3559,7 +3557,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>70</v>
@@ -3581,7 +3579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>82</v>
@@ -3603,7 +3601,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>84</v>
@@ -3627,7 +3625,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>38838</v>
       </c>
@@ -3647,7 +3645,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>38869</v>
       </c>
@@ -3667,7 +3665,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>38899</v>
       </c>
@@ -3687,7 +3685,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>38930</v>
       </c>
@@ -3707,7 +3705,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>38961</v>
       </c>
@@ -3727,7 +3725,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>38991</v>
       </c>
@@ -3747,7 +3745,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>39022</v>
       </c>
@@ -3767,7 +3765,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>39052</v>
       </c>
@@ -3787,7 +3785,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>47</v>
       </c>
@@ -3805,7 +3803,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>39083</v>
       </c>
@@ -3825,7 +3823,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>39114</v>
       </c>
@@ -3845,7 +3843,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>39142</v>
       </c>
@@ -3871,7 +3869,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>39173</v>
       </c>
@@ -3891,7 +3889,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>39203</v>
       </c>
@@ -3911,7 +3909,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>39234</v>
       </c>
@@ -3931,7 +3929,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>39264</v>
       </c>
@@ -3951,7 +3949,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>39295</v>
       </c>
@@ -3971,7 +3969,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>39326</v>
       </c>
@@ -3997,7 +3995,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>39356</v>
       </c>
@@ -4017,7 +4015,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>39387</v>
       </c>
@@ -4037,7 +4035,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>39417</v>
       </c>
@@ -4057,7 +4055,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="48" t="s">
         <v>48</v>
       </c>
@@ -4075,7 +4073,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>39448</v>
       </c>
@@ -4095,7 +4093,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>39479</v>
       </c>
@@ -4115,7 +4113,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>39508</v>
       </c>
@@ -4141,7 +4139,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>39539</v>
       </c>
@@ -4161,7 +4159,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>39569</v>
       </c>
@@ -4181,7 +4179,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>39600</v>
       </c>
@@ -4201,7 +4199,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>39630</v>
       </c>
@@ -4221,7 +4219,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>39661</v>
       </c>
@@ -4241,7 +4239,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>39692</v>
       </c>
@@ -4261,7 +4259,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>39722</v>
       </c>
@@ -4281,7 +4279,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>39753</v>
       </c>
@@ -4301,7 +4299,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>39783</v>
       </c>
@@ -4325,7 +4323,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
         <v>49</v>
       </c>
@@ -4343,7 +4341,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>39814</v>
       </c>
@@ -4363,7 +4361,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>39845</v>
       </c>
@@ -4383,7 +4381,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>39873</v>
       </c>
@@ -4403,7 +4401,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>39904</v>
       </c>
@@ -4423,7 +4421,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>39934</v>
       </c>
@@ -4443,7 +4441,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>39965</v>
       </c>
@@ -4463,7 +4461,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>39995</v>
       </c>
@@ -4483,7 +4481,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>40026</v>
       </c>
@@ -4503,7 +4501,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>40057</v>
       </c>
@@ -4523,7 +4521,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>40087</v>
       </c>
@@ -4543,7 +4541,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>40118</v>
       </c>
@@ -4563,7 +4561,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>40148</v>
       </c>
@@ -4587,7 +4585,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>50</v>
       </c>
@@ -4605,7 +4603,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>40179</v>
       </c>
@@ -4625,7 +4623,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>40210</v>
       </c>
@@ -4645,7 +4643,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>40238</v>
       </c>
@@ -4665,7 +4663,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>40269</v>
       </c>
@@ -4685,7 +4683,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>40299</v>
       </c>
@@ -4705,7 +4703,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>40330</v>
       </c>
@@ -4725,7 +4723,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>40360</v>
       </c>
@@ -4745,7 +4743,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>40391</v>
       </c>
@@ -4765,7 +4763,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>40422</v>
       </c>
@@ -4785,7 +4783,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>40452</v>
       </c>
@@ -4805,7 +4803,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>40483</v>
       </c>
@@ -4825,7 +4823,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>40513</v>
       </c>
@@ -4849,7 +4847,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>51</v>
       </c>
@@ -4867,7 +4865,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>40544</v>
       </c>
@@ -4887,7 +4885,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>40575</v>
       </c>
@@ -4907,7 +4905,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>40603</v>
       </c>
@@ -4927,7 +4925,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>40634</v>
       </c>
@@ -4953,7 +4951,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>95</v>
@@ -4975,7 +4973,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>97</v>
@@ -4993,14 +4991,14 @@
       </c>
       <c r="I103" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>184.548</v>
+        <v>185.798</v>
       </c>
       <c r="J103" s="11"/>
       <c r="K103" s="20" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>40664</v>
       </c>
@@ -5020,7 +5018,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>40695</v>
       </c>
@@ -5040,7 +5038,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>40725</v>
       </c>
@@ -5066,7 +5064,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>40756</v>
       </c>
@@ -5092,7 +5090,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>40787</v>
       </c>
@@ -5112,7 +5110,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>40817</v>
       </c>
@@ -5132,7 +5130,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>40848</v>
       </c>
@@ -5152,7 +5150,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>40878</v>
       </c>
@@ -5178,7 +5176,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>103</v>
@@ -5198,7 +5196,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
         <v>52</v>
       </c>
@@ -5216,7 +5214,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>40909</v>
       </c>
@@ -5236,7 +5234,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>40940</v>
       </c>
@@ -5262,7 +5260,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>40969</v>
       </c>
@@ -5286,7 +5284,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>41000</v>
       </c>
@@ -5306,7 +5304,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>41030</v>
       </c>
@@ -5326,7 +5324,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>41061</v>
       </c>
@@ -5346,7 +5344,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>41091</v>
       </c>
@@ -5366,7 +5364,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>41122</v>
       </c>
@@ -5386,7 +5384,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>41153</v>
       </c>
@@ -5406,7 +5404,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>41183</v>
       </c>
@@ -5426,7 +5424,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>41214</v>
       </c>
@@ -5446,7 +5444,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>41244</v>
       </c>
@@ -5470,7 +5468,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="48" t="s">
         <v>53</v>
       </c>
@@ -5488,7 +5486,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>41275</v>
       </c>
@@ -5514,7 +5512,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>41306</v>
       </c>
@@ -5534,7 +5532,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>41334</v>
       </c>
@@ -5554,7 +5552,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>41365</v>
       </c>
@@ -5574,7 +5572,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>41395</v>
       </c>
@@ -5594,7 +5592,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>41426</v>
       </c>
@@ -5614,7 +5612,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>41456</v>
       </c>
@@ -5634,7 +5632,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>41487</v>
       </c>
@@ -5654,7 +5652,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>41518</v>
       </c>
@@ -5674,7 +5672,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>41548</v>
       </c>
@@ -5694,7 +5692,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>41579</v>
       </c>
@@ -5714,7 +5712,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>41609</v>
       </c>
@@ -5738,7 +5736,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="48" t="s">
         <v>54</v>
       </c>
@@ -5756,7 +5754,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>41640</v>
       </c>
@@ -5776,7 +5774,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>41671</v>
       </c>
@@ -5796,7 +5794,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>41699</v>
       </c>
@@ -5816,7 +5814,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>41730</v>
       </c>
@@ -5836,7 +5834,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>41760</v>
       </c>
@@ -5856,7 +5854,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>41791</v>
       </c>
@@ -5876,7 +5874,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>41821</v>
       </c>
@@ -5896,7 +5894,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>41852</v>
       </c>
@@ -5916,7 +5914,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>41883</v>
       </c>
@@ -5936,7 +5934,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>41913</v>
       </c>
@@ -5956,7 +5954,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>41944</v>
       </c>
@@ -5976,7 +5974,7 @@
       <c r="J150" s="12"/>
       <c r="K150" s="15"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>41974</v>
       </c>
@@ -6002,7 +6000,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="48" t="s">
         <v>55</v>
       </c>
@@ -6020,7 +6018,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>42005</v>
       </c>
@@ -6040,7 +6038,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>42036</v>
       </c>
@@ -6060,7 +6058,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>42064</v>
       </c>
@@ -6080,7 +6078,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>42095</v>
       </c>
@@ -6100,7 +6098,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>42125</v>
       </c>
@@ -6120,7 +6118,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>42156</v>
       </c>
@@ -6144,7 +6142,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>42186</v>
       </c>
@@ -6168,7 +6166,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>42217</v>
       </c>
@@ -6192,7 +6190,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>42248</v>
       </c>
@@ -6212,7 +6210,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>42278</v>
       </c>
@@ -6232,7 +6230,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>42309</v>
       </c>
@@ -6252,7 +6250,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>42339</v>
       </c>
@@ -6276,7 +6274,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="48" t="s">
         <v>56</v>
       </c>
@@ -6294,7 +6292,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>42370</v>
       </c>
@@ -6314,7 +6312,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>42401</v>
       </c>
@@ -6334,7 +6332,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>42430</v>
       </c>
@@ -6354,7 +6352,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>42461</v>
       </c>
@@ -6374,7 +6372,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>42491</v>
       </c>
@@ -6394,7 +6392,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>42522</v>
       </c>
@@ -6414,7 +6412,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>42552</v>
       </c>
@@ -6434,7 +6432,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>42583</v>
       </c>
@@ -6454,7 +6452,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>42614</v>
       </c>
@@ -6474,7 +6472,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>42644</v>
       </c>
@@ -6494,7 +6492,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>42675</v>
       </c>
@@ -6514,7 +6512,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>42705</v>
       </c>
@@ -6538,7 +6536,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="48" t="s">
         <v>57</v>
       </c>
@@ -6556,7 +6554,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>42736</v>
       </c>
@@ -6576,7 +6574,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>42767</v>
       </c>
@@ -6596,7 +6594,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>42795</v>
       </c>
@@ -6616,7 +6614,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>42826</v>
       </c>
@@ -6636,7 +6634,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>42856</v>
       </c>
@@ -6656,7 +6654,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>42887</v>
       </c>
@@ -6676,7 +6674,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>42917</v>
       </c>
@@ -6696,7 +6694,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>42948</v>
       </c>
@@ -6716,7 +6714,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>42979</v>
       </c>
@@ -6736,7 +6734,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>43009</v>
       </c>
@@ -6756,7 +6754,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>43040</v>
       </c>
@@ -6776,7 +6774,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>43070</v>
       </c>
@@ -6800,7 +6798,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="48" t="s">
         <v>58</v>
       </c>
@@ -6818,7 +6816,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>43101</v>
       </c>
@@ -6838,7 +6836,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>43132</v>
       </c>
@@ -6858,7 +6856,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>43160</v>
       </c>
@@ -6878,7 +6876,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>43191</v>
       </c>
@@ -6898,7 +6896,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>43221</v>
       </c>
@@ -6918,7 +6916,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>43252</v>
       </c>
@@ -6938,7 +6936,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>43282</v>
       </c>
@@ -6958,7 +6956,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>43313</v>
       </c>
@@ -6978,7 +6976,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>43344</v>
       </c>
@@ -6998,7 +6996,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>43374</v>
       </c>
@@ -7018,7 +7016,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>43405</v>
       </c>
@@ -7038,7 +7036,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>43435</v>
       </c>
@@ -7064,7 +7062,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="48" t="s">
         <v>59</v>
       </c>
@@ -7082,7 +7080,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>43466</v>
       </c>
@@ -7102,7 +7100,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>43497</v>
       </c>
@@ -7128,7 +7126,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>43525</v>
       </c>
@@ -7148,7 +7146,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>43556</v>
       </c>
@@ -7168,7 +7166,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>43586</v>
       </c>
@@ -7188,7 +7186,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>43617</v>
       </c>
@@ -7208,7 +7206,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>43647</v>
       </c>
@@ -7228,7 +7226,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>43678</v>
       </c>
@@ -7248,7 +7246,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>43709</v>
       </c>
@@ -7268,7 +7266,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>43739</v>
       </c>
@@ -7288,7 +7286,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>43770</v>
       </c>
@@ -7308,7 +7306,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>43800</v>
       </c>
@@ -7332,7 +7330,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="48" t="s">
         <v>60</v>
       </c>
@@ -7350,7 +7348,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>43831</v>
       </c>
@@ -7370,7 +7368,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>43862</v>
       </c>
@@ -7390,7 +7388,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>43891</v>
       </c>
@@ -7410,7 +7408,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>43922</v>
       </c>
@@ -7430,7 +7428,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>43952</v>
       </c>
@@ -7450,7 +7448,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>43983</v>
       </c>
@@ -7470,7 +7468,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>44013</v>
       </c>
@@ -7490,7 +7488,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>44044</v>
       </c>
@@ -7510,7 +7508,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>44075</v>
       </c>
@@ -7530,7 +7528,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>44105</v>
       </c>
@@ -7550,7 +7548,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>44136</v>
       </c>
@@ -7570,7 +7568,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>44166</v>
       </c>
@@ -7594,7 +7592,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="48" t="s">
         <v>61</v>
       </c>
@@ -7612,7 +7610,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>44197</v>
       </c>
@@ -7632,7 +7630,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>44228</v>
       </c>
@@ -7652,7 +7650,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>44256</v>
       </c>
@@ -7672,7 +7670,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>44287</v>
       </c>
@@ -7692,7 +7690,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>44317</v>
       </c>
@@ -7712,7 +7710,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>44348</v>
       </c>
@@ -7732,7 +7730,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>44378</v>
       </c>
@@ -7752,7 +7750,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>44409</v>
       </c>
@@ -7772,7 +7770,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>44440</v>
       </c>
@@ -7792,7 +7790,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>44470</v>
       </c>
@@ -7812,7 +7810,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>44501</v>
       </c>
@@ -7832,7 +7830,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>44531</v>
       </c>
@@ -7856,7 +7854,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="48" t="s">
         <v>62</v>
       </c>
@@ -7874,7 +7872,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>44562</v>
       </c>
@@ -7894,7 +7892,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>44593</v>
       </c>
@@ -7914,7 +7912,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>44621</v>
       </c>
@@ -7934,7 +7932,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>44652</v>
       </c>
@@ -7954,7 +7952,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>44682</v>
       </c>
@@ -7974,7 +7972,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>44713</v>
       </c>
@@ -7994,7 +7992,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>44743</v>
       </c>
@@ -8014,7 +8012,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>44774</v>
       </c>
@@ -8034,7 +8032,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>44805</v>
       </c>
@@ -8054,7 +8052,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>44835</v>
       </c>
@@ -8074,7 +8072,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>44866</v>
       </c>
@@ -8094,7 +8092,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>44896</v>
       </c>
@@ -8118,7 +8116,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="48" t="s">
         <v>115</v>
       </c>
@@ -8136,7 +8134,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>44927</v>
       </c>
@@ -8156,7 +8154,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>44958</v>
       </c>
@@ -8176,7 +8174,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>44986</v>
       </c>
@@ -8196,7 +8194,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>45017</v>
       </c>
@@ -8216,25 +8214,27 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>45047</v>
       </c>
       <c r="B261" s="20"/>
-      <c r="C261" s="13"/>
+      <c r="C261" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D261" s="39"/>
       <c r="E261" s="9"/>
       <c r="F261" s="20"/>
-      <c r="G261" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G261" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H261" s="39"/>
       <c r="I261" s="9"/>
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>45078</v>
       </c>
@@ -8252,7 +8252,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>45108</v>
       </c>
@@ -8270,7 +8270,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>45139</v>
       </c>
@@ -8288,7 +8288,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>45170</v>
       </c>
@@ -8306,7 +8306,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>45200</v>
       </c>
@@ -8324,7 +8324,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>45231</v>
       </c>
@@ -8342,7 +8342,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>45261</v>
       </c>
@@ -8360,7 +8360,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>45292</v>
       </c>
@@ -8378,7 +8378,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>45323</v>
       </c>
@@ -8396,7 +8396,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>45352</v>
       </c>
@@ -8414,7 +8414,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>45383</v>
       </c>
@@ -8432,7 +8432,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>45413</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>45444</v>
       </c>
@@ -8468,7 +8468,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>45474</v>
       </c>
@@ -8486,7 +8486,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>45505</v>
       </c>
@@ -8504,7 +8504,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>45536</v>
       </c>
@@ -8522,7 +8522,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>45566</v>
       </c>
@@ -8540,7 +8540,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>45597</v>
       </c>
@@ -8558,7 +8558,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>45627</v>
       </c>
@@ -8576,7 +8576,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>45658</v>
       </c>
@@ -8594,7 +8594,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>45689</v>
       </c>
@@ -8612,7 +8612,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>45717</v>
       </c>
@@ -8630,7 +8630,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>45748</v>
       </c>
@@ -8648,7 +8648,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>45778</v>
       </c>
@@ -8666,7 +8666,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>45809</v>
       </c>
@@ -8684,7 +8684,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>45839</v>
       </c>
@@ -8702,7 +8702,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>45870</v>
       </c>
@@ -8720,7 +8720,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>45901</v>
       </c>
@@ -8738,7 +8738,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>45931</v>
       </c>
@@ -8756,7 +8756,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>45962</v>
       </c>
@@ -8774,7 +8774,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>45992</v>
       </c>
@@ -8792,7 +8792,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>46023</v>
       </c>
@@ -8810,7 +8810,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>46054</v>
       </c>
@@ -8828,7 +8828,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>46082</v>
       </c>
@@ -8846,7 +8846,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>46113</v>
       </c>
@@ -8864,7 +8864,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>46143</v>
       </c>
@@ -8882,7 +8882,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>46174</v>
       </c>
@@ -8900,7 +8900,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>46204</v>
       </c>
@@ -8918,7 +8918,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>46235</v>
       </c>
@@ -8936,7 +8936,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>46266</v>
       </c>
@@ -8954,7 +8954,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>46296</v>
       </c>
@@ -8972,7 +8972,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>46327</v>
       </c>
@@ -8990,7 +8990,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>46357</v>
       </c>
@@ -9008,7 +9008,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>46388</v>
       </c>
@@ -9026,7 +9026,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20"/>
       <c r="C306" s="13"/>
@@ -9042,7 +9042,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20"/>
       <c r="C307" s="13"/>
@@ -9058,7 +9058,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20"/>
       <c r="C308" s="13"/>
@@ -9074,7 +9074,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
@@ -9090,7 +9090,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20"/>
       <c r="C310" s="13"/>
@@ -9106,7 +9106,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20"/>
       <c r="C311" s="13"/>
@@ -9122,7 +9122,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13"/>
@@ -9138,7 +9138,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
@@ -9154,7 +9154,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20"/>
       <c r="C314" s="13"/>
@@ -9170,7 +9170,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20"/>
       <c r="C315" s="13"/>
@@ -9186,7 +9186,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20"/>
       <c r="C316" s="13"/>
@@ -9202,7 +9202,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20"/>
       <c r="C317" s="13"/>
@@ -9218,7 +9218,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20"/>
       <c r="C318" s="13"/>
@@ -9234,7 +9234,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -9250,7 +9250,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20"/>
       <c r="C320" s="13"/>
@@ -9266,7 +9266,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20"/>
       <c r="C321" s="13"/>
@@ -9282,7 +9282,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20"/>
       <c r="C322" s="13"/>
@@ -9298,7 +9298,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20"/>
       <c r="C323" s="13"/>
@@ -9314,7 +9314,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20"/>
       <c r="C324" s="13"/>
@@ -9330,7 +9330,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
@@ -9346,7 +9346,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20"/>
       <c r="C326" s="13"/>
@@ -9362,7 +9362,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20"/>
       <c r="C327" s="13"/>
@@ -9378,7 +9378,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -9394,7 +9394,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -9410,7 +9410,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -9426,7 +9426,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -9442,7 +9442,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
@@ -9458,7 +9458,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
@@ -9474,7 +9474,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="41"/>
       <c r="B334" s="15"/>
       <c r="C334" s="13"/>
@@ -9505,10 +9505,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9531,28 +9531,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -9565,7 +9565,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>38.942999999999998</v>
       </c>
@@ -9622,17 +9622,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>116</v>
       </c>
@@ -9656,10 +9656,10 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>309.88200000000001</v>
+        <v>312.38200000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -9687,7 +9687,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9713,7 +9713,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9765,7 +9765,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9843,7 +9843,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9950,7 +9950,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9971,7 +9971,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10034,7 +10034,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10097,7 +10097,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10349,7 +10349,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10358,7 +10358,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10367,7 +10367,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10376,7 +10376,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10385,7 +10385,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10394,7 +10394,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10403,7 +10403,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10448,7 +10448,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10457,7 +10457,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10484,7 +10484,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10493,7 +10493,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10502,7 +10502,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10520,7 +10520,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10529,7 +10529,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10538,7 +10538,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10547,7 +10547,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10574,7 +10574,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10583,7 +10583,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10610,7 +10610,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
